--- a/IT23818866_Assignment1 ITP .xlsx
+++ b/IT23818866_Assignment1 ITP .xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shena\Desktop\Assignment1 ITP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Regenerated Test Cases with New" sheetId="1" r:id="rId5"/>
+    <sheet name="Regenerated Test Cases with New" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="218">
   <si>
     <t>TC ID</t>
   </si>
@@ -49,12 +57,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>mama gedhara yanavaa.</t>
-  </si>
-  <si>
-    <t>මම ගෙදර යනවා.</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -73,12 +75,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>api kaeema kanna yanavaa saha passe chithrapatayakuth balanavaa.</t>
-  </si>
-  <si>
-    <t>අපි කෑම කන්න යනවා සහ පස්සේ චිත්‍රපටයකුත් බලනවා.</t>
-  </si>
-  <si>
     <t xml:space="preserve">· The coordinating conjunction "saha" is correctly handled. · Both clauses retain their intended meaning. </t>
   </si>
   <si>
@@ -91,12 +87,6 @@
     <t>Complex conditional sentence</t>
   </si>
   <si>
-    <t>oya enavaanam mama balan innavaa.</t>
-  </si>
-  <si>
-    <t>ඔයා එනවානම් මම බලන් ඉන්නවා.</t>
-  </si>
-  <si>
     <t xml:space="preserve">· The conditional "enavaanam" is accurately transliterated. · The cause-effect relationship is clear. </t>
   </si>
   <si>
@@ -109,30 +99,15 @@
     <t>Interrogative question form</t>
   </si>
   <si>
-    <t>oyaa kavadhdha enna hithan inne?</t>
-  </si>
-  <si>
-    <t>ඔයා කවද්ද එන්න හිතන් ඉන්නේ?</t>
-  </si>
-  <si>
     <t>· The question mark is preserved in the correct position. · Interrogative intent is maintained.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Greeting / request / response · Interrogative (question) · M (31–299 characters) · Accuracy validation</t>
-  </si>
-  <si>
     <t>Pos_Fun_0008</t>
   </si>
   <si>
     <t>Imperative command form</t>
   </si>
   <si>
-    <t>issarahata yanna.</t>
-  </si>
-  <si>
-    <t>ඉස්සරහට යන්න.</t>
-  </si>
-  <si>
     <t>· The imperative tone is preserved. · Spacing between the adverb and verb is correct.</t>
   </si>
   <si>
@@ -145,12 +120,6 @@
     <t>Negative sentence conversion</t>
   </si>
   <si>
-    <t>oyaa eeka hariyata kiyavalaa naehae.</t>
-  </si>
-  <si>
-    <t>ඔයා ඒක හරියට කියවලා නැහැ.</t>
-  </si>
-  <si>
     <t xml:space="preserve">· The negative particle "naehae" is correctly converted. · The sentence conveys the intended negation. </t>
   </si>
   <si>
@@ -163,12 +132,6 @@
     <t>Formal greeting conversion</t>
   </si>
   <si>
-    <t>suba udhaeesanak!</t>
-  </si>
-  <si>
-    <t>සුබ උදෑසනක්!</t>
-  </si>
-  <si>
     <t>· The exclamation mark is correctly preserved. · Spelling follows standard Sinhala transliteration.</t>
   </si>
   <si>
@@ -181,12 +144,6 @@
     <t>Request for action</t>
   </si>
   <si>
-    <t>magee lipinaya eyaata yavanna.</t>
-  </si>
-  <si>
-    <t>මගේ ලිපිනය එයාට යවන්න.</t>
-  </si>
-  <si>
     <t>· Objects and pronouns are correctly segmented. · The request meaning remains clear.</t>
   </si>
   <si>
@@ -199,12 +156,6 @@
     <t>Response with negation</t>
   </si>
   <si>
-    <t>naee, mata eeka karanna puLuvan.</t>
-  </si>
-  <si>
-    <t>නෑ, මට ඒක කරන්න පුළුවන්.</t>
-  </si>
-  <si>
     <t xml:space="preserve">· The comma after the response is preserved. · The modal "puLuvan" is accurately converted. </t>
   </si>
   <si>
@@ -217,12 +168,6 @@
     <t>Polite apology/phrasing</t>
   </si>
   <si>
-    <t>samaavenna, eeka athvaeradhiimak.</t>
-  </si>
-  <si>
-    <t>සමාවෙන්න, ඒක අත්වැරදීමක්.</t>
-  </si>
-  <si>
     <t>· Formal vocabulary is handled phonetically. · Politeness level is correctly reflected.</t>
   </si>
   <si>
@@ -235,12 +180,6 @@
     <t>Informal slang expression</t>
   </si>
   <si>
-    <t>eeyi, ooka dhiyan.</t>
-  </si>
-  <si>
-    <t>ඒයි, ඕක දියන්.</t>
-  </si>
-  <si>
     <t xml:space="preserve">· Slang terms "eeyi" and "dhiyan" are converted correctly. · Colloquial tone is preserved. </t>
   </si>
   <si>
@@ -253,12 +192,6 @@
     <t>Daily status expression</t>
   </si>
   <si>
-    <t>mata nidhimathayi.</t>
-  </si>
-  <si>
-    <t>මට නිදිමතයි.</t>
-  </si>
-  <si>
     <t>· Common phonetic patterns are accurately mapped. · Meaning is preserved without spelling errors.</t>
   </si>
   <si>
@@ -268,12 +201,6 @@
     <t>Multi-word collocation</t>
   </si>
   <si>
-    <t>poddak inna</t>
-  </si>
-  <si>
-    <t>පොඩ්ඩක් ඉන්න</t>
-  </si>
-  <si>
     <t>· The frequent word combination is correctly transliterated. · Natural word segmentation is maintained.</t>
   </si>
   <si>
@@ -286,12 +213,6 @@
     <t>Repeated word for emphasis</t>
   </si>
   <si>
-    <t>eka eka</t>
-  </si>
-  <si>
-    <t>එක එක</t>
-  </si>
-  <si>
     <t>· Repetition is accurately reflected in Sinhala script. · Phonetic consistency is maintained across both words.</t>
   </si>
   <si>
@@ -301,12 +222,6 @@
     <t>Past tense variation</t>
   </si>
   <si>
-    <t>api naetum panthi giyaa.</t>
-  </si>
-  <si>
-    <t>අපි නැටුම් පන්ති ගියා.</t>
-  </si>
-  <si>
     <t xml:space="preserve">· Past tense verb "giyaa" is correctly transliterated. · Plural subject "api" matches the verb context. </t>
   </si>
   <si>
@@ -319,12 +234,6 @@
     <t>Present tense with adverb</t>
   </si>
   <si>
-    <t>mama dhaen vaeda karanavaa.</t>
-  </si>
-  <si>
-    <t>මම දැන් වැඩ කරනවා.</t>
-  </si>
-  <si>
     <t xml:space="preserve">· Time adverb "dhaen" is accurately converted. · Present continuous action is preserved. </t>
   </si>
   <si>
@@ -337,12 +246,6 @@
     <t>Simple negation pattern</t>
   </si>
   <si>
-    <t>mata eeka epaa.</t>
-  </si>
-  <si>
-    <t>මට ඒක එපා.</t>
-  </si>
-  <si>
     <t xml:space="preserve">· Negation particle "epaa" is correctly transliterated. · Intended meaning is successfully conveyed. </t>
   </si>
   <si>
@@ -355,12 +258,6 @@
     <t>Singular pronoun variation</t>
   </si>
   <si>
-    <t>mama yanna hadhannee.</t>
-  </si>
-  <si>
-    <t>මම යන්න හදන්නේ.</t>
-  </si>
-  <si>
     <t xml:space="preserve">· First-person singular pronoun "mama" is handled correctly. · Verb suffix is accurately converted. </t>
   </si>
   <si>
@@ -373,12 +270,6 @@
     <t>Plural pronoun variation</t>
   </si>
   <si>
-    <t>eyaalaa enavaa.</t>
-  </si>
-  <si>
-    <t>එයාලා එනවා.</t>
-  </si>
-  <si>
     <t>· Third-person plural pronoun is accurately transliterated. · Subject-verb agreement is maintained in script.</t>
   </si>
   <si>
@@ -391,9 +282,6 @@
     <t>Technical brand term</t>
   </si>
   <si>
-    <t>WiFi</t>
-  </si>
-  <si>
     <t>· The English technical term remains unchanged. · No incorrect transliteration of the acronym occurs.</t>
   </si>
   <si>
@@ -406,12 +294,6 @@
     <t>Mixed English + Singlish</t>
   </si>
   <si>
-    <t>nimaali office enna late vennee traffic nisaa.</t>
-  </si>
-  <si>
-    <t>නිමාලි office එන්න late වෙන්නේ traffic නිසා.</t>
-  </si>
-  <si>
     <t xml:space="preserve">· English words "office", "late", "traffic" are preserved. · Mixed language syntax remains readable. </t>
   </si>
   <si>
@@ -424,9 +306,6 @@
     <t>Currency format handling</t>
   </si>
   <si>
-    <t>USD 1500</t>
-  </si>
-  <si>
     <t>· Currency prefix and numbers remain unchanged. · The format is preserved exactly as input.</t>
   </si>
   <si>
@@ -439,9 +318,6 @@
     <t>Units of measurement</t>
   </si>
   <si>
-    <t>10 kg</t>
-  </si>
-  <si>
     <t xml:space="preserve">· The unit "kg" and the numeric value are preserved. · Spacing between number and unit is maintained. </t>
   </si>
   <si>
@@ -662,25 +538,162 @@
   </si>
   <si>
     <t>· Numeric injection disrupts the phonetic character sequence. · Output shows a mix of digits and broken script.</t>
+  </si>
+  <si>
+    <t>mama gampahata yanavaa.</t>
+  </si>
+  <si>
+    <t>මම ගම්පහට යනවා.</t>
+  </si>
+  <si>
+    <t>api maathara kadeeta kaeema kanna yanavaa saha passe mooda tharidhu chithrapatiya balanna yanavaa.</t>
+  </si>
+  <si>
+    <t>අපි මාතර කඩේට කෑම කන්න යනවා සහ පස්සෙ මෝඩ තරිදු චිත්‍රපටිය බලන්න යනවා.</t>
+  </si>
+  <si>
+    <t>oyaa vaeda aerilaa enakal mama nivasata velaa kaalaya gatha karagena balan innavaa.</t>
+  </si>
+  <si>
+    <t>ඔයා වැඩ ඇරිලා එනකල් මම නිවසට වෙලා කාලය ගත කරගෙන බලන් ඉන්නවා.</t>
+  </si>
+  <si>
+    <t>magee aNa paridhi ivath venna.</t>
+  </si>
+  <si>
+    <t>මගේ අණ පරිදි ඉවත් වෙන්න.</t>
+  </si>
+  <si>
+    <t>mama ee potha genath dhenne naee.</t>
+  </si>
+  <si>
+    <t>මම ඒ පොත ගෙනත් දෙන්නෙ නෑ.</t>
+  </si>
+  <si>
+    <t>suba dhavasak !</t>
+  </si>
+  <si>
+    <t>සුබ දවසක් !</t>
+  </si>
+  <si>
+    <t>mata meeka kiyalaa dhenna.</t>
+  </si>
+  <si>
+    <t>මට මේක කියලා දෙන්න.</t>
+  </si>
+  <si>
+    <t>naee, eeka eyaata adha karanna baee vaeda nisaa ithin eeka nisaa mama heta karalaa dhennam.</t>
+  </si>
+  <si>
+    <t>නෑ, ඒක එයාට අද කරන්න බෑ වැඩ නිසා ඉතින් ඒක නිසා මම හෙට කරලා දෙන්නම්.</t>
+  </si>
+  <si>
+    <t>karuNaakaralaa oyaa mata eekata samaava dhenna mama eeka karee hithalaa neveyi. mama aaye vaeradhi karanne naee.</t>
+  </si>
+  <si>
+    <t>කරුණාකරලා ඔයා මට ඒකට සමාව දෙන්න මම ඒක කරේ හිතලා නෙවෙයි. මම ආයෙ වැරදි කරන්නේ නෑ.</t>
+  </si>
+  <si>
+    <t>uba meheta varen.</t>
+  </si>
+  <si>
+    <t>උබ මෙහෙට වරෙන්.</t>
+  </si>
+  <si>
+    <t>mata kammaeliyi.</t>
+  </si>
+  <si>
+    <t>මට කම්මැලියි.</t>
+  </si>
+  <si>
+    <t>naevathilaa yanna.</t>
+  </si>
+  <si>
+    <t>නැවතිලා යන්න.</t>
+  </si>
+  <si>
+    <t>aluth aluth</t>
+  </si>
+  <si>
+    <t>අලුත් අලුත්</t>
+  </si>
+  <si>
+    <t>kasun pereedhaa gamata giyaa.</t>
+  </si>
+  <si>
+    <t>කසුන් පෙරේදා ගමට ගියා.</t>
+  </si>
+  <si>
+    <t>mama dhaen naanavaa.</t>
+  </si>
+  <si>
+    <t>මම දැන් නානවා.</t>
+  </si>
+  <si>
+    <t>mama hithuve naee.</t>
+  </si>
+  <si>
+    <t>මම හිතුවෙ නෑ.</t>
+  </si>
+  <si>
+    <t>oyaa yanavadha?</t>
+  </si>
+  <si>
+    <t>ඔයා යනවද?</t>
+  </si>
+  <si>
+    <t>oyaalaa yanavadha?</t>
+  </si>
+  <si>
+    <t>ඔයාලා යනවද?</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>supun river ekata yanne naanna..</t>
+  </si>
+  <si>
+    <t>සුපුන් river එකට යන්නෙ නාන්න..</t>
+  </si>
+  <si>
+    <t>GBP 100</t>
+  </si>
+  <si>
+    <t>10 L</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greeting / request / response · Interrogative (question) · L (≥ 300 characters) · Accuracy validation</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>svaaBhaavika gas minis jiivithayata saha sampuurNa pRUThiviyatama athishaya vaedhagath vee. gas nomaethi lookayak sithannavath apahasuya, mandha eevaa apata oksijan labaa dhena praDhaana muulaashraya vana baevini. gas vaayugoolayee thibena kaaban dayoksayid avashooShaNaya kara oksijan nidhahas kiriima magin parisara samathulithathaavaya pavathvaa ganii. emenma gas vaesi jalaya pRUThiviyata raDHAvaa gaeniimata saha Bhuumi asThaavarathaavaya vaeLaekviimatadha dhaayaka vee. gas magin pakShiinta, sathunta, haa kudaa jiiviinta vaasasThaana sapayana athara jaiva viviDhathvaya raeka gaeniimata vishaala Bhuumikaavak itu karayi. shrii lQQkaava vaeni dhuupath ratakata svaaBhaavika vanaanthara visheeShayen vaedhagath vana athara eevaa apee kaalaguNaya mRUdhu karamin vaayu uShNathvaya paalanaya karayi. gas naethi viima heethuven vanaanthara vinaashaya, viyaLi kaalaguNaya, gQQvathura, haa Bhuumi kaadhaeli vaeni gaetalu vaedi viya haeka. emenma gas minisunta auShaDha, aahaara, lii, saha sevaNa labaa dhena aganaa sampathaki. puraaNa kaalayee sitama minisun gasvalata garu kaLee eevaa jiivithaya raeka gannaa mithuran lesa dhaekiima heethuveni. adha dhina , aDhika vRUththiiya sQQvarDhanaya, nagariikaraNaya, haa akramavath kaepiim heethuven svaaBhaavika gas dhaedi avadhaanamakata lakva aetha. ebaevin gas raeka gaeniima rajayee vagakiimak pamaNak nova, saeema pudhgalayekugeema samaaja vagakiimak vee. api adha gas raeka gannee naethnam, heta dhavasee apee dharuvanta husma gaeniimata sudhusu parisarayak ithiri veevidha?</t>
+  </si>
+  <si>
+    <t>ස්වාභාවික ගස් මිනිස් ජීවිතයට සහ සම්පූර්ණ පෘථිවියටම අතිශය වැදගත් වේ. ගස් නොමැති ලෝකයක් සිතන්නවත් අපහසුය, මන්ද ඒවා අපට ඔක්සිජන් ලබා දෙන ප්‍රධාන මූලාශ්‍රය වන බැවිනි. ගස් වායුගෝලයේ තිබෙන කාබන් ඩයොක්සයිඩ් අවශෝෂණය කර ඔක්සිජන් නිදහස් කිරීම මගින් පරිසර සමතුලිතතාවය පවත්වා ගනී. එමෙන්ම ගස් වැසි ජලය පෘථිවියට රඳවා ගැනීමට සහ භූමි අස්ථාවරතාවය වැළැක්වීමටද දායක වේ. ගස් මගින් පක්ෂීන්ට, සතුන්ට, හා කුඩා ජීවීන්ට වාසස්ථාන සපයන අතර ජෛව විවිධත්වය රැක ගැනීමට විශාල භූමිකාවක් ඉටු කරයි. ශ්‍රී ලංකාව වැනි දූපත් රටකට ස්වාභාවික වනාන්තර විශේෂයෙන් වැදගත් වන අතර ඒවා අපේ කාලගුණය මෘදු කරමින් වායු උෂ්ණත්වය පාලනය කරයි. ගස් නැති වීම හේතුවෙන් වනාන්තර විනාශය, වියළි කාලගුණය, ගංවතුර, හා භූමි කාදැලි වැනි ගැටලු වැඩි විය හැක. එමෙන්ම ගස් මිනිසුන්ට ඖෂධ, ආහාර, ලී, සහ සෙවණ ලබා දෙන අගනා සම්පතකි. පුරාණ කාලයේ සිටම මිනිසුන් ගස්වලට ගරු කළේ ඒවා ජීවිතය රැක ගන්නා මිතුරන් ලෙස දැකීම හේතුවෙනි. අද දින , අධික වෘත්තීය සංවර්ධනය, නගරීකරණය, හා අක්‍රමවත් කැපීම් හේතුවෙන් ස්වාභාවික ගස් දැඩි අවදානමකට ලක්ව ඇත. එබැවින් ගස් රැක ගැනීම රජයේ වගකීමක් පමණක් නොව, සෑම පුද්ගලයෙකුගේම සමාජ වගකීමක් වේ. අපි අද ගස් රැක ගන්නේ නැත්නම්, හෙට දවසේ අපේ දරුවන්ට හුස්ම ගැනීමට සුදුසු පරිසරයක් ඉතිරි වේවිද?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -690,35 +703,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -726,7 +744,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -916,29 +934,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="25.75"/>
-    <col customWidth="1" min="3" max="3" width="10.88"/>
-    <col customWidth="1" min="4" max="4" width="52.38"/>
-    <col customWidth="1" min="5" max="5" width="45.75"/>
-    <col customWidth="1" min="6" max="6" width="42.25"/>
-    <col customWidth="1" min="7" max="7" width="7.63"/>
-    <col customWidth="1" min="8" max="8" width="86.38"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="60.88671875" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" customWidth="1"/>
+    <col min="6" max="6" width="42.21875" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="86.33203125" customWidth="1"/>
+    <col min="9" max="9" width="88.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -967,7 +991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -978,982 +1002,982 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="1" t="s">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="1" t="s">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="1" t="s">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="1" t="s">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1" t="s">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="1" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="1" t="s">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="I24" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="G25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="G26" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="H26" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="I26" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="1" t="s">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="C27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="G27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="I27" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="1" t="s">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="G28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="I28" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="1" t="s">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="G29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="I29" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I22" s="1" t="s">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="G30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="I30" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="G31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="I31" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E25" s="1" t="s">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="C32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="G32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="2" t="s">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="C33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="E33" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="G33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="2" t="s">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H27" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
+      <c r="G34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="2" t="s">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H28" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="G35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="I35" s="2" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/IT23818866_Assignment1 ITP .xlsx
+++ b/IT23818866_Assignment1 ITP .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="219">
   <si>
     <t>TC ID</t>
   </si>
@@ -390,15 +390,9 @@
     <t>Continuous character repetition</t>
   </si>
   <si>
-    <t>yanavaaaaaaaaaa</t>
-  </si>
-  <si>
     <t>යනවා</t>
   </si>
   <si>
-    <t>යනවාආආආආ</t>
-  </si>
-  <si>
     <t>· Excessive vowel repetition confuses the transliteration engine. · The output does not represent a standard Sinhala word.</t>
   </si>
   <si>
@@ -411,12 +405,6 @@
     <t>Mixed English logic failure</t>
   </si>
   <si>
-    <t>The sky is blue today.</t>
-  </si>
-  <si>
-    <t>The sky ඉස් blue today.</t>
-  </si>
-  <si>
     <t>· English words that are not technical terms or places should ideally remain unchanged. · Conversion makes the sentence unreadable.</t>
   </si>
   <si>
@@ -447,15 +435,6 @@
     <t>Special symbol interference</t>
   </si>
   <si>
-    <t>mama @#$ yanavaa</t>
-  </si>
-  <si>
-    <t>මම යනවා</t>
-  </si>
-  <si>
-    <t>මම @#$ යනවා</t>
-  </si>
-  <si>
     <t>· Unexpected symbols can break the real-time transliteration flow. · Output shows partial conversion or formatting errors.</t>
   </si>
   <si>
@@ -489,12 +468,6 @@
     <t>Acronym phonetic conversion</t>
   </si>
   <si>
-    <t>CPU GPU ram</t>
-  </si>
-  <si>
-    <t>CPU GPU රම්</t>
-  </si>
-  <si>
     <t>· Technical abbreviations should ideally remain in English. · Phonetic conversion makes the technical terms unrecognizable.</t>
   </si>
   <si>
@@ -528,15 +501,6 @@
     <t>Numeric mixed string</t>
   </si>
   <si>
-    <t>baetha123KaNNa</t>
-  </si>
-  <si>
-    <t>බත්123කන්න</t>
-  </si>
-  <si>
-    <t>බැත123ඛණ්ණ</t>
-  </si>
-  <si>
     <t>· Numeric injection disrupts the phonetic character sequence. · Output shows a mix of digits and broken script.</t>
   </si>
   <si>
@@ -651,12 +615,6 @@
     <t>Youtube</t>
   </si>
   <si>
-    <t>supun river ekata yanne naanna..</t>
-  </si>
-  <si>
-    <t>සුපුන් river එකට යන්නෙ නාන්න..</t>
-  </si>
-  <si>
     <t>GBP 100</t>
   </si>
   <si>
@@ -673,13 +631,58 @@
   </si>
   <si>
     <t>ස්වාභාවික ගස් මිනිස් ජීවිතයට සහ සම්පූර්ණ පෘථිවියටම අතිශය වැදගත් වේ. ගස් නොමැති ලෝකයක් සිතන්නවත් අපහසුය, මන්ද ඒවා අපට ඔක්සිජන් ලබා දෙන ප්‍රධාන මූලාශ්‍රය වන බැවිනි. ගස් වායුගෝලයේ තිබෙන කාබන් ඩයොක්සයිඩ් අවශෝෂණය කර ඔක්සිජන් නිදහස් කිරීම මගින් පරිසර සමතුලිතතාවය පවත්වා ගනී. එමෙන්ම ගස් වැසි ජලය පෘථිවියට රඳවා ගැනීමට සහ භූමි අස්ථාවරතාවය වැළැක්වීමටද දායක වේ. ගස් මගින් පක්ෂීන්ට, සතුන්ට, හා කුඩා ජීවීන්ට වාසස්ථාන සපයන අතර ජෛව විවිධත්වය රැක ගැනීමට විශාල භූමිකාවක් ඉටු කරයි. ශ්‍රී ලංකාව වැනි දූපත් රටකට ස්වාභාවික වනාන්තර විශේෂයෙන් වැදගත් වන අතර ඒවා අපේ කාලගුණය මෘදු කරමින් වායු උෂ්ණත්වය පාලනය කරයි. ගස් නැති වීම හේතුවෙන් වනාන්තර විනාශය, වියළි කාලගුණය, ගංවතුර, හා භූමි කාදැලි වැනි ගැටලු වැඩි විය හැක. එමෙන්ම ගස් මිනිසුන්ට ඖෂධ, ආහාර, ලී, සහ සෙවණ ලබා දෙන අගනා සම්පතකි. පුරාණ කාලයේ සිටම මිනිසුන් ගස්වලට ගරු කළේ ඒවා ජීවිතය රැක ගන්නා මිතුරන් ලෙස දැකීම හේතුවෙනි. අද දින , අධික වෘත්තීය සංවර්ධනය, නගරීකරණය, හා අක්‍රමවත් කැපීම් හේතුවෙන් ස්වාභාවික ගස් දැඩි අවදානමකට ලක්ව ඇත. එබැවින් ගස් රැක ගැනීම රජයේ වගකීමක් පමණක් නොව, සෑම පුද්ගලයෙකුගේම සමාජ වගකීමක් වේ. අපි අද ගස් රැක ගන්නේ නැත්නම්, හෙට දවසේ අපේ දරුවන්ට හුස්ම ගැනීමට සුදුසු පරිසරයක් ඉතිරි වේවිද?</t>
+  </si>
+  <si>
+    <t>සුපුන් river එකට යන්නෙ නාන්න.</t>
+  </si>
+  <si>
+    <t>supun river ekata yanne naanna.</t>
+  </si>
+  <si>
+    <t>mama @#$ Yanae</t>
+  </si>
+  <si>
+    <t>මම @#$ Yඅනැ</t>
+  </si>
+  <si>
+    <t>මම @#$ යන</t>
+  </si>
+  <si>
+    <t>yanavaeaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>යනවැආආආආඅ</t>
+  </si>
+  <si>
+    <t>baetha 123 KaNNa</t>
+  </si>
+  <si>
+    <t>බත් 123 කන්න</t>
+  </si>
+  <si>
+    <t>බැත 123 ඛණ්ණ</t>
+  </si>
+  <si>
+    <t>The potha is on the mesa.</t>
+  </si>
+  <si>
+    <t>The පොත ඉස් on තෙ mesa.</t>
+  </si>
+  <si>
+    <t>The පොත is on the mesa.</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> රම්</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -696,6 +699,26 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -718,10 +741,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -946,8 +972,8 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -991,24 +1017,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -1020,24 +1046,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -1049,24 +1075,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -1078,24 +1104,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -1104,27 +1130,27 @@
         <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -1136,24 +1162,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -1165,24 +1191,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -1194,24 +1220,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -1223,24 +1249,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -1252,24 +1278,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>12</v>
@@ -1281,24 +1307,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>12</v>
@@ -1310,24 +1336,24 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>12</v>
@@ -1339,24 +1365,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>12</v>
@@ -1368,24 +1394,24 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>12</v>
@@ -1397,24 +1423,24 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>12</v>
@@ -1426,24 +1452,24 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>12</v>
@@ -1455,24 +1481,24 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>12</v>
@@ -1484,24 +1510,24 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>12</v>
@@ -1513,24 +1539,24 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>12</v>
@@ -1542,24 +1568,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>12</v>
@@ -1571,24 +1597,24 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>12</v>
@@ -1600,24 +1626,24 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>12</v>
@@ -1629,24 +1655,24 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>12</v>
@@ -1658,11 +1684,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="5" t="s">
         <v>101</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1687,11 +1713,11 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1716,11 +1742,11 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1745,239 +1771,240 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>125</v>
+      <c r="F28" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>111</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>131</v>
+      <c r="D29" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>111</v>
       </c>
       <c r="H29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>111</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>144</v>
+      <c r="D31" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>111</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>111</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>157</v>
+      <c r="D33" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>111</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>111</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>171</v>
+      <c r="D35" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>111</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/IT23818866_Assignment1 ITP .xlsx
+++ b/IT23818866_Assignment1 ITP .xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shena\Desktop\Assignment1 ITP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shena\Desktop\IT23818866\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916"/>
   </bookViews>
   <sheets>
     <sheet name="Regenerated Test Cases with New" sheetId="1" r:id="rId1"/>
@@ -288,9 +288,6 @@
     <t xml:space="preserve"> Mixed Singlish + English · Simple sentence · S (≤30 characters) · Accuracy validation</t>
   </si>
   <si>
-    <t>Pos_Fun_0024</t>
-  </si>
-  <si>
     <t>Mixed English + Singlish</t>
   </si>
   <si>
@@ -300,9 +297,6 @@
     <t xml:space="preserve"> Mixed Singlish + English · Simple sentence · M (31–299 characters) · Accuracy validation</t>
   </si>
   <si>
-    <t>Pos_Fun_0025</t>
-  </si>
-  <si>
     <t>Currency format handling</t>
   </si>
   <si>
@@ -312,9 +306,6 @@
     <t xml:space="preserve"> Punctuation / numbers · Simple sentence · S (≤30 characters) · Accuracy validation</t>
   </si>
   <si>
-    <t>Pos_Fun_0026</t>
-  </si>
-  <si>
     <t>Units of measurement</t>
   </si>
   <si>
@@ -676,6 +667,15 @@
   </si>
   <si>
     <t xml:space="preserve"> රම්</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0001</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0002</t>
+  </si>
+  <si>
+    <t>Pos_Fun_0003</t>
   </si>
 </sst>
 </file>
@@ -972,8 +972,8 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -988,7 +988,7 @@
     <col min="9" max="9" width="88.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -1028,13 +1028,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>16</v>
@@ -1057,13 +1057,13 @@
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="4" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>21</v>
@@ -1086,13 +1086,13 @@
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -1106,22 +1106,22 @@
     </row>
     <row r="5" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -1130,12 +1130,12 @@
         <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>28</v>
@@ -1144,13 +1144,13 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="7" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>32</v>
@@ -1173,13 +1173,13 @@
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="8" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>36</v>
@@ -1202,13 +1202,13 @@
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="9" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>40</v>
@@ -1231,13 +1231,13 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="10" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>44</v>
@@ -1260,13 +1260,13 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="11" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>48</v>
@@ -1289,13 +1289,13 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>12</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="12" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>52</v>
@@ -1318,13 +1318,13 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>12</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="13" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>56</v>
@@ -1347,13 +1347,13 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>12</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="14" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>59</v>
@@ -1376,13 +1376,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>12</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="15" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>63</v>
@@ -1405,13 +1405,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>12</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="16" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>66</v>
@@ -1434,13 +1434,13 @@
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>12</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>70</v>
@@ -1463,13 +1463,13 @@
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>12</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>74</v>
@@ -1492,13 +1492,13 @@
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>12</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>78</v>
@@ -1521,13 +1521,13 @@
         <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>12</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>82</v>
@@ -1550,13 +1550,13 @@
         <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>12</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>86</v>
@@ -1579,13 +1579,13 @@
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>12</v>
@@ -1599,408 +1599,408 @@
     </row>
     <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="I23" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="F25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="F26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="F27" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="G27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="I28" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="F30" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="G30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="I30" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="F32" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="G32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="I32" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="F34" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="G34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="I34" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
